--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2027.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2027.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.153742587497744</v>
+        <v>1.170827865600586</v>
       </c>
       <c r="B1">
-        <v>2.347089695297829</v>
+        <v>2.472141742706299</v>
       </c>
       <c r="C1">
-        <v>6.85690775145457</v>
+        <v>6.615234851837158</v>
       </c>
       <c r="D1">
-        <v>2.378354661775208</v>
+        <v>2.057464838027954</v>
       </c>
       <c r="E1">
-        <v>1.224197420586541</v>
+        <v>1.206183075904846</v>
       </c>
     </row>
   </sheetData>
